--- a/user-data/kenya-pop-total/kenya-pop-total.xlsx
+++ b/user-data/kenya-pop-total/kenya-pop-total.xlsx
@@ -805,7 +805,7 @@
         <v>2009</v>
       </c>
       <c r="D2" t="n">
-        <v>555561</v>
+        <v> 555561</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>2009</v>
       </c>
       <c r="D3" t="n">
-        <v>724186</v>
+        <v> 724186</v>
       </c>
     </row>
     <row r="4">
@@ -847,7 +847,7 @@
         <v>2009</v>
       </c>
       <c r="D5" t="n">
-        <v>743946</v>
+        <v> 743946</v>
       </c>
     </row>
     <row r="6">
@@ -861,7 +861,7 @@
         <v>2009</v>
       </c>
       <c r="D6" t="n">
-        <v>369998</v>
+        <v> 369998</v>
       </c>
     </row>
     <row r="7">
@@ -875,7 +875,7 @@
         <v>2009</v>
       </c>
       <c r="D7" t="n">
-        <v>516212</v>
+        <v> 516212</v>
       </c>
     </row>
     <row r="8">
@@ -889,7 +889,7 @@
         <v>2009</v>
       </c>
       <c r="D8" t="n">
-        <v>623060</v>
+        <v> 623060</v>
       </c>
     </row>
     <row r="9">
@@ -903,7 +903,7 @@
         <v>2009</v>
       </c>
       <c r="D9" t="n">
-        <v>963794</v>
+        <v> 963794</v>
       </c>
     </row>
     <row r="10">
@@ -917,7 +917,7 @@
         <v>2009</v>
       </c>
       <c r="D10" t="n">
-        <v>143294</v>
+        <v> 143294</v>
       </c>
     </row>
     <row r="11">
@@ -931,7 +931,7 @@
         <v>2009</v>
       </c>
       <c r="D11" t="n">
-        <v>687312</v>
+        <v> 687312</v>
       </c>
     </row>
     <row r="12">
@@ -959,7 +959,7 @@
         <v>2009</v>
       </c>
       <c r="D13" t="n">
-        <v>758339</v>
+        <v> 758339</v>
       </c>
     </row>
     <row r="14">
@@ -1001,7 +1001,7 @@
         <v>2009</v>
       </c>
       <c r="D16" t="n">
-        <v>528054</v>
+        <v> 528054</v>
       </c>
     </row>
     <row r="17">
@@ -1029,7 +1029,7 @@
         <v>2009</v>
       </c>
       <c r="D18" t="n">
-        <v>968909</v>
+        <v> 968909</v>
       </c>
     </row>
     <row r="19">
@@ -1057,7 +1057,7 @@
         <v>2009</v>
       </c>
       <c r="D20" t="n">
-        <v>649931</v>
+        <v> 649931</v>
       </c>
     </row>
     <row r="21">
@@ -1071,7 +1071,7 @@
         <v>2009</v>
       </c>
       <c r="D21" t="n">
-        <v>399227</v>
+        <v> 399227</v>
       </c>
     </row>
     <row r="22">
@@ -1085,7 +1085,7 @@
         <v>2009</v>
       </c>
       <c r="D22" t="n">
-        <v>101539</v>
+        <v> 101539</v>
       </c>
     </row>
     <row r="23">
@@ -1113,7 +1113,7 @@
         <v>2009</v>
       </c>
       <c r="D24" t="n">
-        <v>884527</v>
+        <v> 884527</v>
       </c>
     </row>
     <row r="25">
@@ -1141,7 +1141,7 @@
         <v>2009</v>
       </c>
       <c r="D26" t="n">
-        <v>291166</v>
+        <v> 291166</v>
       </c>
     </row>
     <row r="27">
@@ -1169,7 +1169,7 @@
         <v>2009</v>
       </c>
       <c r="D28" t="n">
-        <v>917170</v>
+        <v> 917170</v>
       </c>
     </row>
     <row r="29">
@@ -1183,7 +1183,7 @@
         <v>2009</v>
       </c>
       <c r="D29" t="n">
-        <v>939370</v>
+        <v> 939370</v>
       </c>
     </row>
     <row r="30">
@@ -1197,7 +1197,7 @@
         <v>2009</v>
       </c>
       <c r="D30" t="n">
-        <v>942581</v>
+        <v> 942581</v>
       </c>
     </row>
     <row r="31">
@@ -1239,7 +1239,7 @@
         <v>2009</v>
       </c>
       <c r="D33" t="n">
-        <v>752965</v>
+        <v> 752965</v>
       </c>
     </row>
     <row r="34">
@@ -1253,7 +1253,7 @@
         <v>2009</v>
       </c>
       <c r="D34" t="n">
-        <v>850920</v>
+        <v> 850920</v>
       </c>
     </row>
     <row r="35">
@@ -1267,7 +1267,7 @@
         <v>2009</v>
       </c>
       <c r="D35" t="n">
-        <v>365330</v>
+        <v> 365330</v>
       </c>
     </row>
     <row r="36">
@@ -1281,7 +1281,7 @@
         <v>2009</v>
       </c>
       <c r="D36" t="n">
-        <v>598252</v>
+        <v> 598252</v>
       </c>
     </row>
     <row r="37">
@@ -1295,7 +1295,7 @@
         <v>2009</v>
       </c>
       <c r="D37" t="n">
-        <v>596268</v>
+        <v> 596268</v>
       </c>
     </row>
     <row r="38">
@@ -1309,7 +1309,7 @@
         <v>2009</v>
       </c>
       <c r="D38" t="n">
-        <v>693558</v>
+        <v> 693558</v>
       </c>
     </row>
     <row r="39">
@@ -1323,7 +1323,7 @@
         <v>2009</v>
       </c>
       <c r="D39" t="n">
-        <v>223947</v>
+        <v> 223947</v>
       </c>
     </row>
     <row r="40">
@@ -1337,7 +1337,7 @@
         <v>2009</v>
       </c>
       <c r="D40" t="n">
-        <v>842304</v>
+        <v> 842304</v>
       </c>
     </row>
     <row r="41">
@@ -1351,7 +1351,7 @@
         <v>2009</v>
       </c>
       <c r="D41" t="n">
-        <v>284657</v>
+        <v> 284657</v>
       </c>
     </row>
     <row r="42">
@@ -1365,7 +1365,7 @@
         <v>2009</v>
       </c>
       <c r="D42" t="n">
-        <v>240075</v>
+        <v> 240075</v>
       </c>
     </row>
     <row r="43">
@@ -1379,7 +1379,7 @@
         <v>2009</v>
       </c>
       <c r="D43" t="n">
-        <v>818757</v>
+        <v> 818757</v>
       </c>
     </row>
     <row r="44">
@@ -1393,7 +1393,7 @@
         <v>2009</v>
       </c>
       <c r="D44" t="n">
-        <v>855399</v>
+        <v> 855399</v>
       </c>
     </row>
     <row r="45">
@@ -1407,7 +1407,7 @@
         <v>2009</v>
       </c>
       <c r="D45" t="n">
-        <v>894179</v>
+        <v> 894179</v>
       </c>
     </row>
     <row r="46">
@@ -1421,7 +1421,7 @@
         <v>2009</v>
       </c>
       <c r="D46" t="n">
-        <v>554622</v>
+        <v> 554622</v>
       </c>
     </row>
     <row r="47">
@@ -1435,7 +1435,7 @@
         <v>2009</v>
       </c>
       <c r="D47" t="n">
-        <v>661941</v>
+        <v> 661941</v>
       </c>
     </row>
     <row r="48">
@@ -1449,7 +1449,7 @@
         <v>2009</v>
       </c>
       <c r="D48" t="n">
-        <v>512690</v>
+        <v> 512690</v>
       </c>
     </row>
   </sheetData>
@@ -1485,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>555561</v>
+        <v> 555561</v>
       </c>
     </row>
     <row r="3">
@@ -1496,7 +1496,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>724186</v>
+        <v> 724186</v>
       </c>
     </row>
     <row r="4">
@@ -1518,7 +1518,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>743946</v>
+        <v> 743946</v>
       </c>
     </row>
     <row r="6">
@@ -1529,7 +1529,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>369998</v>
+        <v> 369998</v>
       </c>
     </row>
     <row r="7">
@@ -1540,7 +1540,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>516212</v>
+        <v> 516212</v>
       </c>
     </row>
     <row r="8">
@@ -1551,7 +1551,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>623060</v>
+        <v> 623060</v>
       </c>
     </row>
     <row r="9">
@@ -1562,7 +1562,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>963794</v>
+        <v> 963794</v>
       </c>
     </row>
     <row r="10">
@@ -1573,7 +1573,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>143294</v>
+        <v> 143294</v>
       </c>
     </row>
     <row r="11">
@@ -1584,7 +1584,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>687312</v>
+        <v> 687312</v>
       </c>
     </row>
     <row r="12">
@@ -1606,7 +1606,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>758339</v>
+        <v> 758339</v>
       </c>
     </row>
     <row r="14">
@@ -1639,7 +1639,7 @@
         <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>528054</v>
+        <v> 528054</v>
       </c>
     </row>
     <row r="17">
@@ -1661,7 +1661,7 @@
         <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>968909</v>
+        <v> 968909</v>
       </c>
     </row>
     <row r="19">
@@ -1683,7 +1683,7 @@
         <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>649931</v>
+        <v> 649931</v>
       </c>
     </row>
     <row r="21">
@@ -1694,7 +1694,7 @@
         <v>43</v>
       </c>
       <c r="C21" t="n">
-        <v>399227</v>
+        <v> 399227</v>
       </c>
     </row>
     <row r="22">
@@ -1705,7 +1705,7 @@
         <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>101539</v>
+        <v> 101539</v>
       </c>
     </row>
     <row r="23">
@@ -1727,7 +1727,7 @@
         <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>884527</v>
+        <v> 884527</v>
       </c>
     </row>
     <row r="25">
@@ -1749,7 +1749,7 @@
         <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>291166</v>
+        <v> 291166</v>
       </c>
     </row>
     <row r="27">
@@ -1771,7 +1771,7 @@
         <v>57</v>
       </c>
       <c r="C28" t="n">
-        <v>917170</v>
+        <v> 917170</v>
       </c>
     </row>
     <row r="29">
@@ -1782,7 +1782,7 @@
         <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>939370</v>
+        <v> 939370</v>
       </c>
     </row>
     <row r="30">
@@ -1793,7 +1793,7 @@
         <v>61</v>
       </c>
       <c r="C30" t="n">
-        <v>942581</v>
+        <v> 942581</v>
       </c>
     </row>
     <row r="31">
@@ -1826,7 +1826,7 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>752965</v>
+        <v> 752965</v>
       </c>
     </row>
     <row r="34">
@@ -1837,7 +1837,7 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>850920</v>
+        <v> 850920</v>
       </c>
     </row>
     <row r="35">
@@ -1848,7 +1848,7 @@
         <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>365330</v>
+        <v> 365330</v>
       </c>
     </row>
     <row r="36">
@@ -1859,7 +1859,7 @@
         <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>598252</v>
+        <v> 598252</v>
       </c>
     </row>
     <row r="37">
@@ -1870,7 +1870,7 @@
         <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>596268</v>
+        <v> 596268</v>
       </c>
     </row>
     <row r="38">
@@ -1881,7 +1881,7 @@
         <v>77</v>
       </c>
       <c r="C38" t="n">
-        <v>693558</v>
+        <v> 693558</v>
       </c>
     </row>
     <row r="39">
@@ -1892,7 +1892,7 @@
         <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v>223947</v>
+        <v> 223947</v>
       </c>
     </row>
     <row r="40">
@@ -1903,7 +1903,7 @@
         <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>842304</v>
+        <v> 842304</v>
       </c>
     </row>
     <row r="41">
@@ -1914,7 +1914,7 @@
         <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>284657</v>
+        <v> 284657</v>
       </c>
     </row>
     <row r="42">
@@ -1925,7 +1925,7 @@
         <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>240075</v>
+        <v> 240075</v>
       </c>
     </row>
     <row r="43">
@@ -1936,7 +1936,7 @@
         <v>87</v>
       </c>
       <c r="C43" t="n">
-        <v>818757</v>
+        <v> 818757</v>
       </c>
     </row>
     <row r="44">
@@ -1947,7 +1947,7 @@
         <v>89</v>
       </c>
       <c r="C44" t="n">
-        <v>855399</v>
+        <v> 855399</v>
       </c>
     </row>
     <row r="45">
@@ -1958,7 +1958,7 @@
         <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v>894179</v>
+        <v> 894179</v>
       </c>
     </row>
     <row r="46">
@@ -1969,7 +1969,7 @@
         <v>93</v>
       </c>
       <c r="C46" t="n">
-        <v>554622</v>
+        <v> 554622</v>
       </c>
     </row>
     <row r="47">
@@ -1980,7 +1980,7 @@
         <v>95</v>
       </c>
       <c r="C47" t="n">
-        <v>661941</v>
+        <v> 661941</v>
       </c>
     </row>
     <row r="48">
@@ -1991,7 +1991,7 @@
         <v>97</v>
       </c>
       <c r="C48" t="n">
-        <v>512690</v>
+        <v> 512690</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/kenya-pop-total/kenya-pop-total.xlsx
+++ b/user-data/kenya-pop-total/kenya-pop-total.xlsx
@@ -349,7 +349,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
